--- a/data/trans_camb/P33A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P33A-Estudios-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>-1.769657755178111</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-12.00016732694042</v>
+        <v>-12.00016732694041</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2024414246566186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-9.450672228995083</v>
+        <v>-9.450672228995071</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.4888843369394991</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-10.60239489777518</v>
+        <v>-10.60239489777515</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.440827803421781</v>
+        <v>-5.269408396772649</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.42715313079317</v>
+        <v>-16.06982006814999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.120121459128452</v>
+        <v>-3.773484951199646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.38099651421953</v>
+        <v>-12.94052706838999</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.197009019636643</v>
+        <v>-3.219809839926401</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.28914801675445</v>
+        <v>-12.99799198898349</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.807539477926933</v>
+        <v>1.565245681676369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.225612387975076</v>
+        <v>-8.211970033156641</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.095253465360014</v>
+        <v>4.176461911251756</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-6.050097650910362</v>
+        <v>-5.982164698636931</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.226048030394655</v>
+        <v>2.357569633690001</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.632726786659161</v>
+        <v>-7.628554017796558</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.02053133853013709</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1392243766269409</v>
+        <v>-0.1392243766269408</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.002803087197927727</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1308578932490787</v>
+        <v>-0.1308578932490785</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.006258905984665357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1357363856099213</v>
+        <v>-0.1357363856099209</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0626548857909144</v>
+        <v>-0.06029470219543993</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.187985175507435</v>
+        <v>-0.1848048083576785</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05615967732062891</v>
+        <v>-0.05095567525931563</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.180959123287287</v>
+        <v>-0.1744314184223423</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04056275939461083</v>
+        <v>-0.04073252780513451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1682660818555848</v>
+        <v>-0.164760821272246</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02124166383385812</v>
+        <v>0.01886048641036362</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.09664686319522399</v>
+        <v>-0.09619808102061697</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05755203446922744</v>
+        <v>0.05916539461415624</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08545334471580372</v>
+        <v>-0.08422503523497295</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02914117808917794</v>
+        <v>0.03038936992616359</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.09948675014133716</v>
+        <v>-0.09967183200925353</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.95460967084246</v>
+        <v>-2.992520496444997</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.941059267489322</v>
+        <v>-2.900530606176497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8587505259819349</v>
+        <v>-0.7211761973714407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8474123421294509</v>
+        <v>0.9302875526836769</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.252315153265044</v>
+        <v>-1.345552227118088</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9334337893991159</v>
+        <v>-0.6990188946281559</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.609119420762101</v>
+        <v>1.590282975186929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.55910575768881</v>
+        <v>1.394774176782351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.834710908183979</v>
+        <v>5.333280651268114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.349866712364359</v>
+        <v>6.382090981500411</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.558451072562861</v>
+        <v>2.374720126195445</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.89931210233249</v>
+        <v>2.968396492759818</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03425660080964944</v>
+        <v>-0.03458569322677376</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.03373138786287541</v>
+        <v>-0.03330667946605859</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.011889241536734</v>
+        <v>-0.008935574240461016</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01138467510420554</v>
+        <v>0.01231297290497228</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01564881484153247</v>
+        <v>-0.01658992098408336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01131969977453833</v>
+        <v>-0.008682771209836538</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01882815071892424</v>
+        <v>0.01871069287271043</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01842132549151431</v>
+        <v>0.0164450907822742</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06735131314689066</v>
+        <v>0.07494158463813549</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08928227152575012</v>
+        <v>0.08899538818169198</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03250719219797175</v>
+        <v>0.03022895667541849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03754735576745744</v>
+        <v>0.03765541370849058</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>-7.032734756250491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.615943004355413</v>
+        <v>1.615943004355402</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-2.803768820032304</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.76576979365849</v>
+        <v>2.765769793658512</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.038593127061967</v>
+        <v>-3.991787321305755</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.211845302514808</v>
+        <v>-1.150363897310972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.58771675063365</v>
+        <v>-12.55589698173527</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.332646090374987</v>
+        <v>-3.846314584150496</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.956425112190096</v>
+        <v>-6.582925817411407</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.9404440473251088</v>
+        <v>-0.7393923293511019</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.916256033206189</v>
+        <v>7.222941320659378</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.954166867720739</v>
+        <v>8.894489319342208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.274309293341828</v>
+        <v>-1.648595823114943</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.499621790956847</v>
+        <v>5.879497374188041</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8732950363490872</v>
+        <v>0.939446471840818</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.27631708340939</v>
+        <v>6.406848380535503</v>
       </c>
     </row>
     <row r="19">
@@ -1016,13 +1016,13 @@
         <v>-0.09104060652414732</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.02091880844705779</v>
+        <v>0.02091880844705764</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.03590421114979989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03541760716994805</v>
+        <v>0.03541760716994834</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04917597780199566</v>
+        <v>-0.04867510647265877</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01422951767595195</v>
+        <v>-0.01366136110550832</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1573439878139632</v>
+        <v>-0.1578948690197836</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04097728233748597</v>
+        <v>-0.04486682624804333</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.08628306673728182</v>
+        <v>-0.08207595312735735</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01185467041463272</v>
+        <v>-0.009075766886592524</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09102751153952095</v>
+        <v>0.09432638257187066</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1186797621421893</v>
+        <v>0.1167748998981521</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01650314663359577</v>
+        <v>-0.021369505498638</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.08935409488390039</v>
+        <v>0.08016290317297872</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01092670582045738</v>
+        <v>0.01268074865810935</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08234697548670365</v>
+        <v>0.08547623544465513</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-0.7876624764972306</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-2.087436209592608</v>
+        <v>-2.087436209592597</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.3833793396300966</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.553402095498519</v>
+        <v>-2.623184750306408</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.838215084437688</v>
+        <v>-3.859704675043179</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.803080743636216</v>
+        <v>-1.755620708956792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.350047481876945</v>
+        <v>-1.152813677344413</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.68496304186268</v>
+        <v>-1.601167750798716</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.000804102271512</v>
+        <v>-2.211914419769581</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.917982069663849</v>
+        <v>1.002395609439404</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.194093070843642</v>
+        <v>-0.1639848625776856</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.642576986694728</v>
+        <v>2.567142016574462</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.711111752887716</v>
+        <v>2.865253660629774</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.265246113150258</v>
+        <v>1.260273237519167</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.678618898368813</v>
+        <v>0.5157377230997244</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.009272411227056748</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.0245734277347657</v>
+        <v>-0.02457342773476557</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.00523026631869756</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02973367233297681</v>
+        <v>-0.03055603066836444</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04458463074876075</v>
+        <v>-0.04537227759328416</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02374488119818423</v>
+        <v>-0.02371219508013971</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01788139161680258</v>
+        <v>-0.01553376356959293</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02118060611191662</v>
+        <v>-0.0200276887294628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02520213861026294</v>
+        <v>-0.02763515719880568</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01082947950317873</v>
+        <v>0.01189951429426452</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.002235844397191966</v>
+        <v>-0.002119177298145542</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03678285267004137</v>
+        <v>0.03569102137657618</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03738222157187854</v>
+        <v>0.03969137703959765</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01609605693396076</v>
+        <v>0.01608425179834917</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.008651723037104422</v>
+        <v>0.006637338709368695</v>
       </c>
     </row>
     <row r="28">
